--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,191 +379,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Generation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>4654</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>4737</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>4737</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>4737</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>5213</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>5241</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>5444</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="C11">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>5459</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5536</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="C12">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>5536</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="C14">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>5553</v>
+      <c r="C15">
+        <v>4786</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3601</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4201</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4249</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4511</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4559</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4689</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4689</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4725</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4725</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4725</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4742</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4742</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4742</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4786</v>
+        <v>5479</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4415</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4549</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4749</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4749</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4912</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4948</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5027</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5027</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5080</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5080</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5343</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5343</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5343</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5479</v>
+        <v>5298</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4046</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4766</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4766</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4766</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5145</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5145</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5145</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5145</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5145</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5145</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5185</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5185</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5298</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5298</v>
+        <v>5506</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3936</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4320</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4803</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5021</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5063</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5126</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5126</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5399</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5419</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5419</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5419</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5489</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5489</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5506</v>
+        <v>4749</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3936</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4320</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,128 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>5126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>5419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>5419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>5419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>5506</v>
+        <v>4298</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3824</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3824</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3824</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4005</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4053</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4053</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4605</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4605</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4647</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4728</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4736</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4736</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4749</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4749</v>
+        <v>4641</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3663</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3783</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,95 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4298</v>
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4955</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4424</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4784</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4784</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4784</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4784</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4792</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4809</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4853</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4909</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4927</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4955</v>
+        <v>5006</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3495</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3874</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4232</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4484</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4484</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4484</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4484</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4705</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4970</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4970</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5006</v>
+        <v>4547</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4302</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4302</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4302</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4359</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4359</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4359</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4359</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4359</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4547</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4547</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4547</v>
+        <v>4756</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4255</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4255</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4508</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4554</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4554</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4554</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4554</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4554</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4554</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4756</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4756</v>
+        <v>4724</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4142</v>
+        <v>4114.784832046243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4142</v>
+        <v>4114.784832046243</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4142</v>
+        <v>4114.784832046243</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4142</v>
+        <v>4114.784832046243</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4149</v>
+        <v>4114.784832046243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4149</v>
+        <v>4044.468177775046</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4149</v>
+        <v>4032.430749483882</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4724</v>
+        <v>4032.430749483882</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4724</v>
+        <v>3975.49186220928</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4724</v>
+        <v>3946.290375547124</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4724</v>
+        <v>3906.852602915739</v>
       </c>
     </row>
   </sheetData>

--- a/log/basline/run_11.xlsx
+++ b/log/basline/run_11.xlsx
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4114.784832046243</v>
+        <v>4200.28794797618</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4114.784832046243</v>
+        <v>4200.28794797618</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4114.784832046243</v>
+        <v>4200.28794797618</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4114.784832046243</v>
+        <v>4200.28794797618</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4114.784832046243</v>
+        <v>4181.072717457391</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4044.468177775046</v>
+        <v>4181.072717457391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4032.430749483882</v>
+        <v>4181.072717457391</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4032.430749483882</v>
+        <v>4181.072717457391</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3975.49186220928</v>
+        <v>4115.721103667424</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3946.290375547124</v>
+        <v>4115.721103667424</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3906.852602915739</v>
+        <v>4115.721103667424</v>
       </c>
     </row>
   </sheetData>
